--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="236">
   <si>
     <t>Property</t>
   </si>
@@ -147,10 +147,6 @@
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.  
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -1229,13 +1225,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1246,10 +1242,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1260,28 +1256,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1331,13 +1327,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1360,10 +1356,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1374,25 +1370,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1443,19 +1439,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1472,10 +1468,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1486,28 +1482,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1557,19 +1553,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1586,10 +1582,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1600,7 +1596,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1612,16 +1608,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1647,43 +1643,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1700,21 +1696,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1726,16 +1722,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1785,25 +1781,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -1814,14 +1810,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1840,16 +1836,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1899,7 +1895,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -1917,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -1928,14 +1924,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1954,16 +1950,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2013,7 +2009,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2025,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2042,14 +2038,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2062,25 +2058,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2129,7 +2125,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2141,13 +2137,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2158,10 +2154,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2181,19 +2177,19 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2243,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2255,16 +2251,16 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>38</v>
@@ -2272,10 +2268,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2286,28 +2282,28 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2333,63 +2329,63 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2397,31 +2393,31 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2447,49 +2443,49 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -2500,10 +2496,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2514,25 +2510,25 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2583,39 +2579,39 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2626,7 +2622,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2638,16 +2634,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2673,61 +2669,61 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2738,7 +2734,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2750,16 +2746,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2809,39 +2805,39 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2864,16 +2860,16 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2923,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2935,13 +2931,13 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -2952,10 +2948,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2966,7 +2962,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2978,13 +2974,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3035,25 +3031,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3064,10 +3060,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3090,13 +3086,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3135,17 +3131,17 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3157,7 +3153,7 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -3174,13 +3170,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>38</v>
@@ -3202,13 +3198,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3259,7 +3255,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3268,10 +3264,10 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -3288,14 +3284,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3308,25 +3304,25 @@
         <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -3375,7 +3371,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3387,13 +3383,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -3404,10 +3400,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3415,10 +3411,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3430,19 +3426,19 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -3491,39 +3487,39 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3534,7 +3530,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3546,17 +3542,17 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -3605,25 +3601,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -3634,10 +3630,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3645,10 +3641,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3660,16 +3656,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3719,39 +3715,39 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3762,7 +3758,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3774,13 +3770,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3831,25 +3827,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -3860,14 +3856,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3886,16 +3882,16 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3933,19 +3929,19 @@
         <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -3957,13 +3953,13 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -3974,13 +3970,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>38</v>
@@ -4002,13 +3998,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4059,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4071,7 +4067,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4088,10 +4084,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4102,7 +4098,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4114,16 +4110,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4173,39 +4169,39 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4216,7 +4212,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4228,16 +4224,16 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4287,39 +4283,39 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4330,7 +4326,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4342,13 +4338,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4399,25 +4395,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -4428,10 +4424,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4442,7 +4438,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4454,13 +4450,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4511,25 +4507,25 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -4540,14 +4536,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4566,16 +4562,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4625,7 +4621,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4637,13 +4633,13 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -4654,14 +4650,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4674,25 +4670,25 @@
         <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>38</v>
@@ -4741,7 +4737,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -4753,13 +4749,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -4770,10 +4766,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4784,7 +4780,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -4796,16 +4792,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4855,39 +4851,39 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4898,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -4910,13 +4906,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4967,31 +4963,31 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
